--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Lịch Sử Đảng/Chương 1.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Lịch Sử Đảng/Chương 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\kiemTraTracNghiem\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Lịch Sử Đảng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170ABA9A-8C55-471E-A47C-81D111B3B1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BB174D-F150-42E5-8B7F-788E40483BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="523">
   <si>
     <t>Câu Hỏi</t>
   </si>
@@ -1519,6 +1519,81 @@
   </si>
   <si>
     <t>8-1930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chống nhổ lúa trồng đay </t>
+  </si>
+  <si>
+    <t>Giải quyết nạn đói</t>
+  </si>
+  <si>
+    <t>Đánh đuổi phát xít Nhật- Pháp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đánh đuổi phát xít Nhật </t>
+  </si>
+  <si>
+    <t>Khẩu hiệu nào sau được nêu ra trong Cao trào kháng Nhật cứu nước?</t>
+  </si>
+  <si>
+    <t>Binh biến Đô Lương</t>
+  </si>
+  <si>
+    <t>Khởi nghĩa Ba Tơ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khởi nghĩa Bắc Sơn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khởi nghĩa Nam Kì </t>
+  </si>
+  <si>
+    <t>Lá cờ đỏ sao vàng lần đầu tiên xuất hiện trong các cuộc khởi nghĩa nào?</t>
+  </si>
+  <si>
+    <t>Tân Trào.</t>
+  </si>
+  <si>
+    <t>Hương Cảng (Trung Quốc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cao Bằng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma Cao (Trung Quốc) </t>
+  </si>
+  <si>
+    <t>Đại hội lần thứ nhất của Đảng Cộng sản Đông Dương (3/1935) đã diễn ra ở đâu?</t>
+  </si>
+  <si>
+    <t>Mặt trận phản đế đồng minh Đông Dương.</t>
+  </si>
+  <si>
+    <t>Mặt trận nhân dân phản đế Đông Dương.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mặt trận dân chủ Đông Dương. </t>
+  </si>
+  <si>
+    <t>Mặt trận dân tộc thống nhất phản đế Đông Dương.</t>
+  </si>
+  <si>
+    <t>Hội nghị Ban Chấp hành Trung ương Đảng họp tháng 7-1936 chủ trương thành lập mặt trận nào?</t>
+  </si>
+  <si>
+    <t>Lê Hồng Phong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Văn Cung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồ Chí Minh </t>
+  </si>
+  <si>
+    <t>Trần Phú</t>
+  </si>
+  <si>
+    <t>Ai là Tổng Bí thư đầu tiên của Đảng?</t>
   </si>
 </sst>
 </file>
@@ -1869,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4283,6 +4358,106 @@
         <v>1</v>
       </c>
     </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F122" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F125" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
